--- a/libro1.xlsx
+++ b/libro1.xlsx
@@ -411,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,79 +428,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="F6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="I7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="L8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="M8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="O9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="P9" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="R10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="S10" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="T10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
     </row>

--- a/libro1.xlsx
+++ b/libro1.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
+  <si>
+    <t>nombre</t>
   </si>
   <si>
     <t>valor</t>
@@ -80,6 +80,366 @@
   </si>
   <si>
     <t>4.383.030</t>
+  </si>
+  <si>
+    <t>Activos biológicos corrientes</t>
+  </si>
+  <si>
+    <t>Activos por impuestos corrientes, corrientes</t>
+  </si>
+  <si>
+    <t>2.485.108</t>
+  </si>
+  <si>
+    <t>1.340.037</t>
+  </si>
+  <si>
+    <t>Total de activos corrientes distintos de los activo o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
+  </si>
+  <si>
+    <t>132.971.507</t>
+  </si>
+  <si>
+    <t>121.282.743</t>
+  </si>
+  <si>
+    <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
+  </si>
+  <si>
+    <t>Activos corrientes totales</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Activos no corrientes [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Otros activos financieros no corrientes</t>
+  </si>
+  <si>
+    <t>7.413.197</t>
+  </si>
+  <si>
+    <t>7.367.236</t>
+  </si>
+  <si>
+    <t>Otros activos no financieros no corrientes</t>
+  </si>
+  <si>
+    <t>420.067</t>
+  </si>
+  <si>
+    <t>408.949</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar no corrientes</t>
+  </si>
+  <si>
+    <t>1.879.762</t>
+  </si>
+  <si>
+    <t>3.035.747</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar a entidades relacionadas, no corrientes</t>
+  </si>
+  <si>
+    <t>Inventarios, no corrientes</t>
+  </si>
+  <si>
+    <t>Inversiones contabilizadas utilizando el método de la participación</t>
+  </si>
+  <si>
+    <t>Activos intangibles distintos de la plusvalía</t>
+  </si>
+  <si>
+    <t>227.347.269</t>
+  </si>
+  <si>
+    <t>225.272.517</t>
+  </si>
+  <si>
+    <t>Plusvalía</t>
+  </si>
+  <si>
+    <t>36.233.012</t>
+  </si>
+  <si>
+    <t>Propiedades, planta y equipo</t>
+  </si>
+  <si>
+    <t>1.171.182.828</t>
+  </si>
+  <si>
+    <t>1.152.300.877</t>
+  </si>
+  <si>
+    <t>Activos biológicos no corrientes</t>
+  </si>
+  <si>
+    <t>Propiedad de inversión</t>
+  </si>
+  <si>
+    <t>Activos por impuestos corrientes, no corrientes</t>
+  </si>
+  <si>
+    <t>Activos por impuestos diferidos</t>
+  </si>
+  <si>
+    <t>263.122</t>
+  </si>
+  <si>
+    <t>324.398</t>
+  </si>
+  <si>
+    <t>Total de activos no corrientes</t>
+  </si>
+  <si>
+    <t>1.444.739.257</t>
+  </si>
+  <si>
+    <t>1.424.942.736</t>
+  </si>
+  <si>
+    <t>Total de activos</t>
+  </si>
+  <si>
+    <t>1.577.710.764</t>
+  </si>
+  <si>
+    <t>1.546.225.479</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Patrimonio y pasivos [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Pasivos [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Pasivos corrientes [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Otros pasivos financieros corrientes</t>
+  </si>
+  <si>
+    <t>93.620.208</t>
+  </si>
+  <si>
+    <t>56.804.996</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar comerciales y otras cuentas por pagar</t>
+  </si>
+  <si>
+    <t>90.032.192</t>
+  </si>
+  <si>
+    <t>74.682.140</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar a entidades relacionadas, corrientes</t>
+  </si>
+  <si>
+    <t>29.985.286</t>
+  </si>
+  <si>
+    <t>27.662.460</t>
+  </si>
+  <si>
+    <t>Otras provisiones a corto plazo</t>
+  </si>
+  <si>
+    <t>918.556</t>
+  </si>
+  <si>
+    <t>1.331.679</t>
+  </si>
+  <si>
+    <t>Pasivos por impuestos corrientes, corrientes</t>
+  </si>
+  <si>
+    <t>59.151</t>
+  </si>
+  <si>
+    <t>1.422.685</t>
+  </si>
+  <si>
+    <t>Provisiones corrientes por beneficios a los empleados</t>
+  </si>
+  <si>
+    <t>4.198.437</t>
+  </si>
+  <si>
+    <t>2.906.724</t>
+  </si>
+  <si>
+    <t>Otros pasivos no financieros corrientes</t>
+  </si>
+  <si>
+    <t>1.381.524</t>
+  </si>
+  <si>
+    <t>1.941.637</t>
+  </si>
+  <si>
+    <t>Total de pasivos corrientes distintos de los pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
+  </si>
+  <si>
+    <t>220.195.354</t>
+  </si>
+  <si>
+    <t>166.752.321</t>
+  </si>
+  <si>
+    <t>Pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
+  </si>
+  <si>
+    <t>Pasivos corrientes totales</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Pasivos no corrientes [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Otros pasivos financieros no corrientes</t>
+  </si>
+  <si>
+    <t>626.272.073</t>
+  </si>
+  <si>
+    <t>637.349.551</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar no corrientes</t>
+  </si>
+  <si>
+    <t>1.862.609</t>
+  </si>
+  <si>
+    <t>1.498.799</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar a entidades relacionadas, no corrientes</t>
+  </si>
+  <si>
+    <t>Otras provisiones a largo plazo</t>
+  </si>
+  <si>
+    <t>1.118.746</t>
+  </si>
+  <si>
+    <t>1.094.239</t>
+  </si>
+  <si>
+    <t>Pasivo por impuestos diferidos</t>
+  </si>
+  <si>
+    <t>34.162.915</t>
+  </si>
+  <si>
+    <t>37.557.315</t>
+  </si>
+  <si>
+    <t>Pasivos por impuestos corrientes, no corrientes</t>
+  </si>
+  <si>
+    <t>Provisiones no corrientes por beneficios a los empleados</t>
+  </si>
+  <si>
+    <t>8.542.371</t>
+  </si>
+  <si>
+    <t>8.677.001</t>
+  </si>
+  <si>
+    <t>Otros pasivos no financieros no corrientes</t>
+  </si>
+  <si>
+    <t>7.888.046</t>
+  </si>
+  <si>
+    <t>9.043.975</t>
+  </si>
+  <si>
+    <t>Total de pasivos no corrientes</t>
+  </si>
+  <si>
+    <t>679.846.760</t>
+  </si>
+  <si>
+    <t>695.220.880</t>
+  </si>
+  <si>
+    <t>Total de pasivos</t>
+  </si>
+  <si>
+    <t>900.042.114</t>
+  </si>
+  <si>
+    <t>861.973.201</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Patrimonio [sinopsis] &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Capital emitido</t>
+  </si>
+  <si>
+    <t>155.567.354</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) acumuladas</t>
+  </si>
+  <si>
+    <t>302.875.246</t>
+  </si>
+  <si>
+    <t>308.088.569</t>
+  </si>
+  <si>
+    <t>Prima de emisión</t>
+  </si>
+  <si>
+    <t>164.064.038</t>
+  </si>
+  <si>
+    <t>Acciones propias en cartera</t>
+  </si>
+  <si>
+    <t>Otras participaciones en el patrimonio</t>
+  </si>
+  <si>
+    <t>-5.965.550</t>
+  </si>
+  <si>
+    <t>Otras reservas</t>
+  </si>
+  <si>
+    <t>Patrimonio atribuible a los propietarios de la controladora</t>
+  </si>
+  <si>
+    <t>616.541.088</t>
+  </si>
+  <si>
+    <t>621.754.411</t>
+  </si>
+  <si>
+    <t>Participaciones no controladoras</t>
+  </si>
+  <si>
+    <t>61.127.562</t>
+  </si>
+  <si>
+    <t>62.497.867</t>
+  </si>
+  <si>
+    <t>Patrimonio total</t>
+  </si>
+  <si>
+    <t>677.668.650</t>
+  </si>
+  <si>
+    <t>684.252.278</t>
+  </si>
+  <si>
+    <t>Total de patrimonio y pasivos</t>
   </si>
 </sst>
 </file>
@@ -411,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,80 +788,660 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/libro1.xlsx
+++ b/libro1.xlsx
@@ -25,10 +25,10 @@
     <t>valor_ant</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Activos [sinopsis] &lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Activos corrientes [sinopsis] &lt;/strong&gt;</t>
+    <t xml:space="preserve">Activos [sinopsis] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activos corrientes [sinopsis] </t>
   </si>
   <si>
     <t>Efectivo y equivalentes al efectivo</t>
@@ -109,7 +109,7 @@
     <t>Activos corrientes totales</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Activos no corrientes [sinopsis] &lt;/strong&gt;</t>
+    <t xml:space="preserve">Activos no corrientes [sinopsis] </t>
   </si>
   <si>
     <t>Otros activos financieros no corrientes</t>
@@ -208,13 +208,13 @@
     <t>1.546.225.479</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Patrimonio y pasivos [sinopsis] &lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Pasivos [sinopsis] &lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Pasivos corrientes [sinopsis] &lt;/strong&gt;</t>
+    <t xml:space="preserve">Patrimonio y pasivos [sinopsis] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasivos [sinopsis] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasivos corrientes [sinopsis] </t>
   </si>
   <si>
     <t>Otros pasivos financieros corrientes</t>
@@ -295,7 +295,7 @@
     <t>Pasivos corrientes totales</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Pasivos no corrientes [sinopsis] &lt;/strong&gt;</t>
+    <t xml:space="preserve">Pasivos no corrientes [sinopsis] </t>
   </si>
   <si>
     <t>Otros pasivos financieros no corrientes</t>
@@ -376,7 +376,7 @@
     <t>861.973.201</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Patrimonio [sinopsis] &lt;/strong&gt;</t>
+    <t xml:space="preserve">Patrimonio [sinopsis] </t>
   </si>
   <si>
     <t>Capital emitido</t>
